--- a/exp/results/exp2_url_autoPLBF.xlsx
+++ b/exp/results/exp2_url_autoPLBF.xlsx
@@ -609,7 +609,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0.0010177462185463775</t>
+          <t>0.00087736742978136</t>
         </is>
       </c>
     </row>
